--- a/Excel_Challenge_524 - Fill in Digits to make Perfect Square.xlsx
+++ b/Excel_Challenge_524 - Fill in Digits to make Perfect Square.xlsx
@@ -8,13 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61464730-AAC8-49BA-AEF6-271C6093C0C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7421EC23-8792-40B2-A53F-AE4B1D23CE72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
+    <sheet name="EDA" sheetId="2" r:id="rId2"/>
+    <sheet name="Alt1" sheetId="4" r:id="rId3"/>
+    <sheet name="Alt2" sheetId="6" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_s">EDA!$E$7:$E$15</definedName>
+    <definedName name="HD_Date">_xlfn.LET(_xlpm.dt, TODAY(),      _xlpm.y,  YEAR(_xlpm.dt),      _xlpm.m,  MONTH(_xlpm.dt),      _xlpm.d,  DAY(_xlpm.dt),      TEXT(DATE(_xlpm.y,_xlpm.m,_xlpm.d),"dd-mmm-yyyy")     )</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,8 +42,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="18">
   <si>
     <t>Numbers</t>
   </si>
@@ -96,7 +125,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,8 +141,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -132,6 +176,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -142,16 +192,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Intro_Hd" xfId="2" xr:uid="{CCC006E1-3830-4A6B-B9C8-F421A469A98D}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{424DCCBC-8E29-487D-A08E-B433D26A1AB4}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -602,11 +656,38 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="976" row="9">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{C6A5675B-CCAC-47DE-9B2F-FF0BA1C0AC6C}">
+  <we:reference id="wa200003696" version="1.3.0.0" store="en-US" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="wa200003696" version="1.3.0.0" store="" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+  <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
+      <we:customFunctionIdList>
+        <we:customFunctionIds>_xldudf_LABS_GENERATIVEAI</we:customFunctionIds>
+      </we:customFunctionIdList>
+    </a:ext>
+  </we:extLst>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
@@ -703,4 +784,694 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71A00AB6-0496-4712-83A8-10D9FBCD2E4F}">
+  <dimension ref="A1:W26"/>
+  <sheetViews>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="14" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="W1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" cm="1">
+        <f t="array" ref="E7:E15">_xlfn.SEQUENCE(9)</f>
+        <v>1</v>
+      </c>
+      <c r="F7" t="str" cm="1">
+        <f t="array" ref="F7:N15">SUBSTITUTE(SUBSTITUTE(E5, "X", _s, 1), "X", _xlfn.TOROW(_s))</f>
+        <v>113151719</v>
+      </c>
+      <c r="G7" t="str">
+        <v>113252729</v>
+      </c>
+      <c r="H7" t="str">
+        <v>113353739</v>
+      </c>
+      <c r="I7" t="str">
+        <v>113454749</v>
+      </c>
+      <c r="J7" t="str">
+        <v>113555759</v>
+      </c>
+      <c r="K7" t="str">
+        <v>113656769</v>
+      </c>
+      <c r="L7" t="str">
+        <v>113757779</v>
+      </c>
+      <c r="M7" t="str">
+        <v>113858789</v>
+      </c>
+      <c r="N7" t="str">
+        <v>113959799</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8" t="str">
+        <v>123151719</v>
+      </c>
+      <c r="G8" t="str">
+        <v>123252729</v>
+      </c>
+      <c r="H8" t="str">
+        <v>123353739</v>
+      </c>
+      <c r="I8" t="str">
+        <v>123454749</v>
+      </c>
+      <c r="J8" t="str">
+        <v>123555759</v>
+      </c>
+      <c r="K8" t="str">
+        <v>123656769</v>
+      </c>
+      <c r="L8" t="str">
+        <v>123757779</v>
+      </c>
+      <c r="M8" t="str">
+        <v>123858789</v>
+      </c>
+      <c r="N8" t="str">
+        <v>123959799</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>6682225</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9" t="str">
+        <v>133151719</v>
+      </c>
+      <c r="G9" t="str">
+        <v>133252729</v>
+      </c>
+      <c r="H9" t="str">
+        <v>133353739</v>
+      </c>
+      <c r="I9" t="str">
+        <v>133454749</v>
+      </c>
+      <c r="J9" t="str">
+        <v>133555759</v>
+      </c>
+      <c r="K9" t="str">
+        <v>133656769</v>
+      </c>
+      <c r="L9" t="str">
+        <v>133757779</v>
+      </c>
+      <c r="M9" t="str">
+        <v>133858789</v>
+      </c>
+      <c r="N9" t="str">
+        <v>133959799</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10" t="str">
+        <v>143151719</v>
+      </c>
+      <c r="G10" t="str">
+        <v>143252729</v>
+      </c>
+      <c r="H10" t="str">
+        <v>143353739</v>
+      </c>
+      <c r="I10" t="str">
+        <v>143454749</v>
+      </c>
+      <c r="J10" t="str">
+        <v>143555759</v>
+      </c>
+      <c r="K10" t="str">
+        <v>143656769</v>
+      </c>
+      <c r="L10" t="str">
+        <v>143757779</v>
+      </c>
+      <c r="M10" t="str">
+        <v>143858789</v>
+      </c>
+      <c r="N10" t="str">
+        <v>143959799</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11" t="str">
+        <v>153151719</v>
+      </c>
+      <c r="G11" t="str">
+        <v>153252729</v>
+      </c>
+      <c r="H11" t="str">
+        <v>153353739</v>
+      </c>
+      <c r="I11" t="str">
+        <v>153454749</v>
+      </c>
+      <c r="J11" t="str">
+        <v>153555759</v>
+      </c>
+      <c r="K11" t="str">
+        <v>153656769</v>
+      </c>
+      <c r="L11" t="str">
+        <v>153757779</v>
+      </c>
+      <c r="M11" t="str">
+        <v>153858789</v>
+      </c>
+      <c r="N11" t="str">
+        <v>153959799</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="E12">
+        <v>6</v>
+      </c>
+      <c r="F12" t="str">
+        <v>163151719</v>
+      </c>
+      <c r="G12" t="str">
+        <v>163252729</v>
+      </c>
+      <c r="H12" t="str">
+        <v>163353739</v>
+      </c>
+      <c r="I12" t="str">
+        <v>163454749</v>
+      </c>
+      <c r="J12" t="str">
+        <v>163555759</v>
+      </c>
+      <c r="K12" t="str">
+        <v>163656769</v>
+      </c>
+      <c r="L12" t="str">
+        <v>163757779</v>
+      </c>
+      <c r="M12" t="str">
+        <v>163858789</v>
+      </c>
+      <c r="N12" t="str">
+        <v>163959799</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="E13">
+        <v>7</v>
+      </c>
+      <c r="F13" t="str">
+        <v>173151719</v>
+      </c>
+      <c r="G13" t="str">
+        <v>173252729</v>
+      </c>
+      <c r="H13" t="str">
+        <v>173353739</v>
+      </c>
+      <c r="I13" t="str">
+        <v>173454749</v>
+      </c>
+      <c r="J13" t="str">
+        <v>173555759</v>
+      </c>
+      <c r="K13" t="str">
+        <v>173656769</v>
+      </c>
+      <c r="L13" t="str">
+        <v>173757779</v>
+      </c>
+      <c r="M13" t="str">
+        <v>173858789</v>
+      </c>
+      <c r="N13" t="str">
+        <v>173959799</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="E14">
+        <v>8</v>
+      </c>
+      <c r="F14" t="str">
+        <v>183151719</v>
+      </c>
+      <c r="G14" t="str">
+        <v>183252729</v>
+      </c>
+      <c r="H14" t="str">
+        <v>183353739</v>
+      </c>
+      <c r="I14" t="str">
+        <v>183454749</v>
+      </c>
+      <c r="J14" t="str">
+        <v>183555759</v>
+      </c>
+      <c r="K14" t="str">
+        <v>183656769</v>
+      </c>
+      <c r="L14" t="str">
+        <v>183757779</v>
+      </c>
+      <c r="M14" t="str">
+        <v>183858789</v>
+      </c>
+      <c r="N14" t="str">
+        <v>183959799</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="E15">
+        <v>9</v>
+      </c>
+      <c r="F15" t="str">
+        <v>193151719</v>
+      </c>
+      <c r="G15" t="str">
+        <v>193252729</v>
+      </c>
+      <c r="H15" t="str">
+        <v>193353739</v>
+      </c>
+      <c r="I15" t="str">
+        <v>193454749</v>
+      </c>
+      <c r="J15" t="str">
+        <v>193555759</v>
+      </c>
+      <c r="K15" t="str">
+        <v>193656769</v>
+      </c>
+      <c r="L15" t="str">
+        <v>193757779</v>
+      </c>
+      <c r="M15" t="str">
+        <v>193858789</v>
+      </c>
+      <c r="N15" t="str">
+        <v>193959799</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F18" t="str" cm="1">
+        <f t="array" ref="F18:F26">SUBSTITUTE(E5, "X", _s, 1)</f>
+        <v>113X5X7X9</v>
+      </c>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F19" t="str">
+        <v>123X5X7X9</v>
+      </c>
+    </row>
+    <row r="20" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F20" t="str">
+        <v>133X5X7X9</v>
+      </c>
+    </row>
+    <row r="21" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F21" t="str">
+        <v>143X5X7X9</v>
+      </c>
+    </row>
+    <row r="22" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F22" t="str">
+        <v>153X5X7X9</v>
+      </c>
+    </row>
+    <row r="23" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F23" t="str">
+        <v>163X5X7X9</v>
+      </c>
+    </row>
+    <row r="24" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F24" t="str">
+        <v>173X5X7X9</v>
+      </c>
+    </row>
+    <row r="25" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F25" t="str">
+        <v>183X5X7X9</v>
+      </c>
+    </row>
+    <row r="26" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F26" t="str">
+        <v>193X5X7X9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6B2C357-EAB4-4E33-AE67-3358849D415B}">
+  <dimension ref="A1:J22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>6682225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B15" t="str" cm="1">
+        <f t="array" ref="B15:B22">_xlfn.MAP(
+    A2:A9,
+    _xlfn.LAMBDA(_xlpm.a,
+        _xlfn.LET(
+            _xlpm.s, _xlfn.SEQUENCE(9),
+            _xlpm.I, SUBSTITUTE(SUBSTITUTE(_xlpm.a, "X", _xlpm.s, 1), "X", _xlfn.TOROW(_xlpm.s)),
+            IFERROR(_xlfn.ARRAYTOTEXT(_xlfn.UNIQUE(_xlfn.TOCOL(_xlpm.I / (MOD(_xlpm.I ^ 0.5, 1) = 0), 2))), "NP")
+        )
+    )
+)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B16" t="str">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="str">
+        <v>NP</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" t="str">
+        <v>576, 676</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" t="str">
+        <v>2401, 2601</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" t="str">
+        <v>12321, 19321</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" t="str">
+        <v>712336, 732736</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" t="str">
+        <v>6682225</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B59D1A21-9CB5-4ED4-A442-79683EC47421}">
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>6682225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel_Challenge_524 - Fill in Digits to make Perfect Square.xlsx
+++ b/Excel_Challenge_524 - Fill in Digits to make Perfect Square.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7421EC23-8792-40B2-A53F-AE4B1D23CE72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E1E78F-342F-4973-8BD3-88E066D84425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="19">
   <si>
     <t>Numbers</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>https://www.linkedin.com/feed/update/urn:li:activity:7231147906508980224/</t>
+  </si>
+  <si>
+    <t>Same basic method as Alt1, but done correctly for work with 3 X numbers.</t>
   </si>
 </sst>
 </file>
@@ -1376,10 +1379,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B59D1A21-9CB5-4ED4-A442-79683EC47421}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1471,6 +1474,600 @@
         <v>16</v>
       </c>
     </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B15" t="str" cm="1">
+        <f t="array" ref="B15:B23">_xlfn.MAP(
+    A2:A10,
+    _xlfn.LAMBDA(_xlpm.n,
+        _xlfn.LET(
+            _xlpm.q, _xlfn.REDUCE(
+                _xlpm.n,
+                _xlfn.SEQUENCE(4),
+                _xlfn.LAMBDA(_xlpm.a,_xlpm.i, _xlfn.UNIQUE(_xlfn.TOCOL(SUBSTITUTE(_xlpm.a, "X", _xlfn.SEQUENCE(, 10, 0), 1))))
+            ),
+            _xlfn.ARRAYTOTEXT(_xlfn._xlws.FILTER(_xlpm.q, MOD(SQRT(_xlpm.q), 1) = 0, "NP"))
+        )
+    )
+)</f>
+        <v>25</v>
+      </c>
+      <c r="D15" t="str" cm="1">
+        <f t="array" ref="D15:D24">_xlfn.UNIQUE(_xlfn.TOCOL(SUBSTITUTE(A3,"X",_xlfn.SEQUENCE(,10,0),1)))</f>
+        <v>101</v>
+      </c>
+      <c r="E15" t="str" cm="1">
+        <f t="array" ref="E15:E114">_xlfn.REDUCE(
+                A7,
+                _xlfn.SEQUENCE(4),
+                _xlfn.LAMBDA(_xlpm.a,_xlpm.i, _xlfn.UNIQUE(_xlfn.TOCOL(SUBSTITUTE(_xlpm.a, "X", _xlfn.SEQUENCE(, 10, 0), 1))))
+            )</f>
+        <v>10301</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B16" t="str">
+        <v>121</v>
+      </c>
+      <c r="D16" t="str">
+        <v>111</v>
+      </c>
+      <c r="E16" t="str">
+        <v>10311</v>
+      </c>
+      <c r="G16" cm="1">
+        <f t="array" ref="G16:G19">_xlfn.SEQUENCE(4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" t="str">
+        <v>NP</v>
+      </c>
+      <c r="D17" t="str">
+        <v>121</v>
+      </c>
+      <c r="E17" t="str">
+        <v>10321</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" t="str">
+        <v>576, 676</v>
+      </c>
+      <c r="D18" t="str">
+        <v>131</v>
+      </c>
+      <c r="E18" t="str">
+        <v>10331</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" t="str">
+        <v>2401, 2601</v>
+      </c>
+      <c r="D19" t="str">
+        <v>141</v>
+      </c>
+      <c r="E19" t="str">
+        <v>10341</v>
+      </c>
+      <c r="G19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" t="str">
+        <v>12321, 19321</v>
+      </c>
+      <c r="D20" t="str">
+        <v>151</v>
+      </c>
+      <c r="E20" t="str">
+        <v>10351</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" t="str">
+        <v>712336, 732736</v>
+      </c>
+      <c r="D21" t="str">
+        <v>161</v>
+      </c>
+      <c r="E21" t="str">
+        <v>10361</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" t="str">
+        <v>6682225</v>
+      </c>
+      <c r="D22" t="str">
+        <v>171</v>
+      </c>
+      <c r="E22" t="str">
+        <v>10371</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" t="str">
+        <v>143352729, 163251729</v>
+      </c>
+      <c r="D23" t="str">
+        <v>181</v>
+      </c>
+      <c r="E23" t="str">
+        <v>10381</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D24" t="str">
+        <v>191</v>
+      </c>
+      <c r="E24" t="str">
+        <v>10391</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E25" t="str">
+        <v>11301</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E26" t="str">
+        <v>11311</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E27" t="str">
+        <v>11321</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E28" t="str">
+        <v>11331</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E29" t="str">
+        <v>11341</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E30" t="str">
+        <v>11351</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E31" t="str">
+        <v>11361</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E32" t="str">
+        <v>11371</v>
+      </c>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E33" t="str">
+        <v>11381</v>
+      </c>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E34" t="str">
+        <v>11391</v>
+      </c>
+    </row>
+    <row r="35" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E35" t="str">
+        <v>12301</v>
+      </c>
+    </row>
+    <row r="36" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E36" t="str">
+        <v>12311</v>
+      </c>
+    </row>
+    <row r="37" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E37" t="str">
+        <v>12321</v>
+      </c>
+    </row>
+    <row r="38" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E38" t="str">
+        <v>12331</v>
+      </c>
+    </row>
+    <row r="39" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E39" t="str">
+        <v>12341</v>
+      </c>
+    </row>
+    <row r="40" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E40" t="str">
+        <v>12351</v>
+      </c>
+    </row>
+    <row r="41" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E41" t="str">
+        <v>12361</v>
+      </c>
+    </row>
+    <row r="42" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E42" t="str">
+        <v>12371</v>
+      </c>
+    </row>
+    <row r="43" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E43" t="str">
+        <v>12381</v>
+      </c>
+    </row>
+    <row r="44" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E44" t="str">
+        <v>12391</v>
+      </c>
+    </row>
+    <row r="45" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E45" t="str">
+        <v>13301</v>
+      </c>
+    </row>
+    <row r="46" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E46" t="str">
+        <v>13311</v>
+      </c>
+    </row>
+    <row r="47" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E47" t="str">
+        <v>13321</v>
+      </c>
+    </row>
+    <row r="48" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E48" t="str">
+        <v>13331</v>
+      </c>
+    </row>
+    <row r="49" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E49" t="str">
+        <v>13341</v>
+      </c>
+    </row>
+    <row r="50" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E50" t="str">
+        <v>13351</v>
+      </c>
+    </row>
+    <row r="51" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E51" t="str">
+        <v>13361</v>
+      </c>
+    </row>
+    <row r="52" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E52" t="str">
+        <v>13371</v>
+      </c>
+    </row>
+    <row r="53" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E53" t="str">
+        <v>13381</v>
+      </c>
+    </row>
+    <row r="54" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E54" t="str">
+        <v>13391</v>
+      </c>
+    </row>
+    <row r="55" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E55" t="str">
+        <v>14301</v>
+      </c>
+    </row>
+    <row r="56" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E56" t="str">
+        <v>14311</v>
+      </c>
+    </row>
+    <row r="57" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E57" t="str">
+        <v>14321</v>
+      </c>
+    </row>
+    <row r="58" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E58" t="str">
+        <v>14331</v>
+      </c>
+    </row>
+    <row r="59" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E59" t="str">
+        <v>14341</v>
+      </c>
+    </row>
+    <row r="60" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E60" t="str">
+        <v>14351</v>
+      </c>
+    </row>
+    <row r="61" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E61" t="str">
+        <v>14361</v>
+      </c>
+    </row>
+    <row r="62" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E62" t="str">
+        <v>14371</v>
+      </c>
+    </row>
+    <row r="63" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E63" t="str">
+        <v>14381</v>
+      </c>
+    </row>
+    <row r="64" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E64" t="str">
+        <v>14391</v>
+      </c>
+    </row>
+    <row r="65" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E65" t="str">
+        <v>15301</v>
+      </c>
+    </row>
+    <row r="66" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E66" t="str">
+        <v>15311</v>
+      </c>
+    </row>
+    <row r="67" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E67" t="str">
+        <v>15321</v>
+      </c>
+    </row>
+    <row r="68" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E68" t="str">
+        <v>15331</v>
+      </c>
+    </row>
+    <row r="69" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E69" t="str">
+        <v>15341</v>
+      </c>
+    </row>
+    <row r="70" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E70" t="str">
+        <v>15351</v>
+      </c>
+    </row>
+    <row r="71" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E71" t="str">
+        <v>15361</v>
+      </c>
+    </row>
+    <row r="72" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E72" t="str">
+        <v>15371</v>
+      </c>
+    </row>
+    <row r="73" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E73" t="str">
+        <v>15381</v>
+      </c>
+    </row>
+    <row r="74" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E74" t="str">
+        <v>15391</v>
+      </c>
+    </row>
+    <row r="75" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E75" t="str">
+        <v>16301</v>
+      </c>
+    </row>
+    <row r="76" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E76" t="str">
+        <v>16311</v>
+      </c>
+    </row>
+    <row r="77" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E77" t="str">
+        <v>16321</v>
+      </c>
+    </row>
+    <row r="78" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E78" t="str">
+        <v>16331</v>
+      </c>
+    </row>
+    <row r="79" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E79" t="str">
+        <v>16341</v>
+      </c>
+    </row>
+    <row r="80" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E80" t="str">
+        <v>16351</v>
+      </c>
+    </row>
+    <row r="81" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E81" t="str">
+        <v>16361</v>
+      </c>
+    </row>
+    <row r="82" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E82" t="str">
+        <v>16371</v>
+      </c>
+    </row>
+    <row r="83" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E83" t="str">
+        <v>16381</v>
+      </c>
+    </row>
+    <row r="84" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E84" t="str">
+        <v>16391</v>
+      </c>
+    </row>
+    <row r="85" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E85" t="str">
+        <v>17301</v>
+      </c>
+    </row>
+    <row r="86" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E86" t="str">
+        <v>17311</v>
+      </c>
+    </row>
+    <row r="87" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E87" t="str">
+        <v>17321</v>
+      </c>
+    </row>
+    <row r="88" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E88" t="str">
+        <v>17331</v>
+      </c>
+    </row>
+    <row r="89" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E89" t="str">
+        <v>17341</v>
+      </c>
+    </row>
+    <row r="90" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E90" t="str">
+        <v>17351</v>
+      </c>
+    </row>
+    <row r="91" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E91" t="str">
+        <v>17361</v>
+      </c>
+    </row>
+    <row r="92" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E92" t="str">
+        <v>17371</v>
+      </c>
+    </row>
+    <row r="93" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E93" t="str">
+        <v>17381</v>
+      </c>
+    </row>
+    <row r="94" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E94" t="str">
+        <v>17391</v>
+      </c>
+    </row>
+    <row r="95" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E95" t="str">
+        <v>18301</v>
+      </c>
+    </row>
+    <row r="96" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E96" t="str">
+        <v>18311</v>
+      </c>
+    </row>
+    <row r="97" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E97" t="str">
+        <v>18321</v>
+      </c>
+    </row>
+    <row r="98" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E98" t="str">
+        <v>18331</v>
+      </c>
+    </row>
+    <row r="99" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E99" t="str">
+        <v>18341</v>
+      </c>
+    </row>
+    <row r="100" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E100" t="str">
+        <v>18351</v>
+      </c>
+    </row>
+    <row r="101" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E101" t="str">
+        <v>18361</v>
+      </c>
+    </row>
+    <row r="102" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E102" t="str">
+        <v>18371</v>
+      </c>
+    </row>
+    <row r="103" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E103" t="str">
+        <v>18381</v>
+      </c>
+    </row>
+    <row r="104" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E104" t="str">
+        <v>18391</v>
+      </c>
+    </row>
+    <row r="105" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E105" t="str">
+        <v>19301</v>
+      </c>
+    </row>
+    <row r="106" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E106" t="str">
+        <v>19311</v>
+      </c>
+    </row>
+    <row r="107" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E107" t="str">
+        <v>19321</v>
+      </c>
+    </row>
+    <row r="108" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E108" t="str">
+        <v>19331</v>
+      </c>
+    </row>
+    <row r="109" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E109" t="str">
+        <v>19341</v>
+      </c>
+    </row>
+    <row r="110" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E110" t="str">
+        <v>19351</v>
+      </c>
+    </row>
+    <row r="111" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E111" t="str">
+        <v>19361</v>
+      </c>
+    </row>
+    <row r="112" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E112" t="str">
+        <v>19371</v>
+      </c>
+    </row>
+    <row r="113" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E113" t="str">
+        <v>19381</v>
+      </c>
+    </row>
+    <row r="114" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E114" t="str">
+        <v>19391</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Excel_Challenge_524 - Fill in Digits to make Perfect Square.xlsx
+++ b/Excel_Challenge_524 - Fill in Digits to make Perfect Square.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E1E78F-342F-4973-8BD3-88E066D84425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B57E52F-E188-4D9B-A8A5-4CE391268DF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="20">
   <si>
     <t>Numbers</t>
   </si>
@@ -121,7 +121,10 @@
     <t>https://www.linkedin.com/feed/update/urn:li:activity:7231147906508980224/</t>
   </si>
   <si>
-    <t>Same basic method as Alt1, but done correctly for work with 3 X numbers.</t>
+    <t>Same basic method as Alt1, but done correctly for work with 4 X numbers.</t>
+  </si>
+  <si>
+    <t>This is probably the most understandable, repeatable solution</t>
   </si>
 </sst>
 </file>
@@ -1381,8 +1384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B59D1A21-9CB5-4ED4-A442-79683EC47421}">
   <dimension ref="A1:J114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1477,6 +1480,11 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">

--- a/Excel_Challenge_524 - Fill in Digits to make Perfect Square.xlsx
+++ b/Excel_Challenge_524 - Fill in Digits to make Perfect Square.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B57E52F-E188-4D9B-A8A5-4CE391268DF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{824D87DB-B221-4709-987C-028BFCE8B38D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
@@ -1232,8 +1232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6B2C357-EAB4-4E33-AE67-3358849D415B}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1384,8 +1384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B59D1A21-9CB5-4ED4-A442-79683EC47421}">
   <dimension ref="A1:J114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
